--- a/OtherModule/Excel/Для лекции 7.xlsx
+++ b/OtherModule/Excel/Для лекции 7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\!Edu\!Excel\Excel 2016 Мастер формул\Практика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Save\PycharmProjects\data_analysis\OtherModule\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161FA29-D496-433E-A8C0-8B0D5D3A0539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B371BF-56BD-4A65-8818-E2B9FBDA625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2-1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,17 @@
   </sheets>
   <definedNames>
     <definedName name="Количество" localSheetId="0">'2-1'!$C$2:$C$10</definedName>
+    <definedName name="Количество" localSheetId="2">'2-2'!$C$2:$C$10</definedName>
     <definedName name="Курс_доллара" localSheetId="0">Курсы!$B$6</definedName>
     <definedName name="Курс_евро" localSheetId="0">Курсы!$C$6</definedName>
     <definedName name="Курс_фунта" localSheetId="0">Курсы!$D$6</definedName>
+    <definedName name="Скидка_долл" comment="Скидка в долларах" localSheetId="2">'2-2'!$D$2:$D$10</definedName>
     <definedName name="Стоимость_долл" localSheetId="0">'2-1'!$D$2:$D$10</definedName>
+    <definedName name="Стоимость_с_учётом_скидки">'2-2'!$F$2:$F$10</definedName>
     <definedName name="СтоимостьРуб" comment="Стоимость в Рублях" localSheetId="0">'2-1'!$E$2:$E$10</definedName>
     <definedName name="Цена" comment="цена в долларах" localSheetId="0">'2-1'!$B$2:$B$10</definedName>
+    <definedName name="Цена_долл" comment="Цена в долларах" localSheetId="2">'2-2'!$B$2:$B$10</definedName>
+    <definedName name="Цена_с_учетом_скидки" localSheetId="2">'2-2'!$E$2:$E$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -754,16 +759,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115094</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>391715</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -778,8 +783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3175000" y="1758950"/>
-          <a:ext cx="4095750" cy="800100"/>
+          <a:off x="6223000" y="785416"/>
+          <a:ext cx="4384278" cy="777875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,7 +1272,7 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1578,7 +1583,9 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1620,9 +1627,18 @@
       <c r="C2" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1" cm="1">
+        <f t="array" ref="D2:D10">Цена_долл*$C$12</f>
+        <v>90</v>
+      </c>
+      <c r="E2" s="1" cm="1">
+        <f t="array" ref="E2:E10">Цена_долл-Скидка_долл</f>
+        <v>510</v>
+      </c>
+      <c r="F2" s="1" cm="1">
+        <f t="array" ref="F2:F10">Цена_с_учетом_скидки*Количество</f>
+        <v>1530</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1634,9 +1650,15 @@
       <c r="C3" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>127.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>765</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1648,9 +1670,15 @@
       <c r="C4" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>178.5</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1662,9 +1690,15 @@
       <c r="C5" s="7">
         <v>7</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>59.5</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1676,9 +1710,15 @@
       <c r="C6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>382.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1530</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1690,9 +1730,15 @@
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>127.5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1704,9 +1750,15 @@
       <c r="C8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1">
+        <v>425</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1700</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1718,9 +1770,15 @@
       <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="D9" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42.5</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1732,9 +1790,15 @@
       <c r="C10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
